--- a/traditional_test.xlsx
+++ b/traditional_test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\test-repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,99 +24,227 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="68">
   <si>
     <t>Test Case ID</t>
   </si>
   <si>
-    <t>Test Case Description</t>
-  </si>
-  <si>
-    <t>Steps</t>
-  </si>
-  <si>
     <t>Expected Result</t>
   </si>
   <si>
-    <t>TC01</t>
-  </si>
-  <si>
-    <t>Verify composing and sending an email with valid subject and body</t>
-  </si>
-  <si>
-    <t>The email is sent successfully and appears in the 'Sent' folder</t>
-  </si>
-  <si>
-    <t>TC02</t>
-  </si>
-  <si>
-    <t>Verify composing an email without a subject</t>
-  </si>
-  <si>
-    <t>Gmail prompts the user that the subject is empty and asks if they want to send it anyway</t>
-  </si>
-  <si>
-    <t>TC03</t>
-  </si>
-  <si>
-    <t>Verify composing an email without a body</t>
-  </si>
-  <si>
-    <t>TC04</t>
-  </si>
-  <si>
-    <t>Verify composing an email without a recipient</t>
-  </si>
-  <si>
-    <t>Gmail prevents the email from being sent and shows an error message about the missing recipient</t>
-  </si>
-  <si>
-    <t>TC05</t>
-  </si>
-  <si>
-    <t>Verify saving a draft email</t>
-  </si>
-  <si>
-    <t>The email is saved as a draft and appears in the 'Drafts' folder</t>
-  </si>
-  <si>
-    <t>1. Open Gmail
-2. Click on 'Compose'
-3. Enter 'Incubyte' in the subject field
-4. Enter 'QA test for Incubyte' in the body
-5. Enter a valid recipient email
-6. Click 'Send'</t>
-  </si>
-  <si>
-    <t>1. Open Gmail
-2. Click on 'Compose'
-3. Leave the subject field empty
-4. Enter 'QA test for Incubyte' in the body
-5. Enter a valid recipient email
-6. Click 'Send'</t>
-  </si>
-  <si>
-    <t>1. Open Gmail
-2. Click on 'Compose'
-3. Enter 'Incubyte' in the subject field
-4. Leave the body field empty
-5. Enter a valid recipient email
-6. Click 'Send'</t>
-  </si>
-  <si>
-    <t>1. Open Gmail
-2. Click on 'Compose'
-3. Enter 'Incubyte' in the subject field
-4. Enter 'QA test for Incubyte' in the body
-5. Leave the recipient field empty
-6. Click 'Send'</t>
-  </si>
-  <si>
-    <t>1. Open Gmail
-2. Click on 'Compose'
-3. Enter 'Incubyte' in the subject field
-4. Enter 'QA test for Incubyte' in the body
-5. Close the compose window</t>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Precondition</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Test Type</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Test Environment</t>
+  </si>
+  <si>
+    <t>Test Steps</t>
+  </si>
+  <si>
+    <t>TC001</t>
+  </si>
+  <si>
+    <t>Positive: Compose Email successfully</t>
+  </si>
+  <si>
+    <t>User is logged in</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Functional</t>
+  </si>
+  <si>
+    <t>Valid email addresses, subject, message</t>
+  </si>
+  <si>
+    <t>Email is sent successfully.</t>
+  </si>
+  <si>
+    <t>TC002</t>
+  </si>
+  <si>
+    <t>Positive: Attachments included</t>
+  </si>
+  <si>
+    <t>Valid email addresses, subject, message, attachments</t>
+  </si>
+  <si>
+    <t>Email with attachments is sent successfully.</t>
+  </si>
+  <si>
+    <t>TC003</t>
+  </si>
+  <si>
+    <t>Positive: Email sent to multiple recipients</t>
+  </si>
+  <si>
+    <t>Valid email addresses (multiple), subject, message</t>
+  </si>
+  <si>
+    <t>Email is sent to all recipients successfully.</t>
+  </si>
+  <si>
+    <t>TC004</t>
+  </si>
+  <si>
+    <t>Positive: Email saved as Draft</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Draft email is saved with correct details.</t>
+  </si>
+  <si>
+    <t>TC005</t>
+  </si>
+  <si>
+    <t>Negative: Empty recipient field</t>
+  </si>
+  <si>
+    <t>Empty recipient field, valid subject, valid message</t>
+  </si>
+  <si>
+    <t>Error message prompts to fill in recipient field.</t>
+  </si>
+  <si>
+    <t>TC006</t>
+  </si>
+  <si>
+    <t>Negative: Empty subject field</t>
+  </si>
+  <si>
+    <t>Valid email addresses, empty subject field, valid message</t>
+  </si>
+  <si>
+    <t>Error message prompts to fill in subject field.</t>
+  </si>
+  <si>
+    <t>TC007</t>
+  </si>
+  <si>
+    <t>Negative: Empty message field</t>
+  </si>
+  <si>
+    <t>Valid email addresses, valid subject, empty message field</t>
+  </si>
+  <si>
+    <t>Error message prompts to fill in message field.</t>
+  </si>
+  <si>
+    <t>TC008</t>
+  </si>
+  <si>
+    <t>Negative: Invalid recipient email</t>
+  </si>
+  <si>
+    <t>Invalid email address, valid subject, valid message</t>
+  </si>
+  <si>
+    <t>Error message prompts about invalid email address.</t>
+  </si>
+  <si>
+    <t>TC009</t>
+  </si>
+  <si>
+    <t>Edge: Maximum character limit for subject</t>
+  </si>
+  <si>
+    <t>Valid email addresses, subject with maximum character limit, valid message</t>
+  </si>
+  <si>
+    <t>Email is sent successfully with subject within character limit.</t>
+  </si>
+  <si>
+    <t>TC010</t>
+  </si>
+  <si>
+    <t>Edge: Maximum character limit for message</t>
+  </si>
+  <si>
+    <t>Valid email addresses, valid subject, message with maximum character limit</t>
+  </si>
+  <si>
+    <t>Email is sent successfully with message within character limit.</t>
+  </si>
+  <si>
+    <t>TC011</t>
+  </si>
+  <si>
+    <t>Edge: Maximum number of attachments</t>
+  </si>
+  <si>
+    <t>Valid email addresses, subject, message, maximum number of attachments</t>
+  </si>
+  <si>
+    <t>Email is sent successfully with maximum number of attachments.</t>
+  </si>
+  <si>
+    <t>1. Click on "Compose" button  2. Fill in recipient, subject, and message fields
+3. Click "Send" button</t>
+  </si>
+  <si>
+    <t>1. Click on "Compose" button 2. Add recipient, subject, message, and attach files 
+3. Click "Send" button</t>
+  </si>
+  <si>
+    <t>1. Click on "Compose" button 2. Add multiple recipients 
+3. Fill in subject and message  4. Click "Send" button</t>
+  </si>
+  <si>
+    <t>1. Click on "Compose" button 2. Fill in recipient, subject, and message fields 
+3. Close the compose window without sending 
+ 4. Open "Drafts" folder</t>
+  </si>
+  <si>
+    <t>1. Click on "Compose" button 2. Leave the recipient field empty 
+3. Fill in subject and message fields 
+4. Click "Send" button</t>
+  </si>
+  <si>
+    <t>1. Click on "Compose" button 2. Add recipient, leave subject field empty  
+3. Fill in message field 
+4. Click "Send" button</t>
+  </si>
+  <si>
+    <t>1. Click on "Compose" button 2. Add recipient, fill in subject, leave message field empty  
+3. Click "Send" button</t>
+  </si>
+  <si>
+    <t>1. Click on "Compose" button 2. Enter an invalid email address in the recipient field 3. Fill in subject and message fields  
+4. Click "Send" button</t>
+  </si>
+  <si>
+    <t>1. Click on "Compose" button 2. Enter subject with maximum character limit 
+3. Fill in recipient and message fields 
+4. Click "Send" button</t>
+  </si>
+  <si>
+    <t>1. Click on "Compose" button 2. Fill in recipient and subject fields  
+3. Enter message with maximum character limit 
+4. Click "Send" button</t>
+  </si>
+  <si>
+    <t>1. Click on "Compose" button 2. Add maximum number of attachments 
+3. Fill in recipient, subject, and message fields  
+4. Click "Send" button</t>
+  </si>
+  <si>
+    <t>QA</t>
   </si>
 </sst>
 </file>
@@ -140,20 +268,41 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -162,11 +311,11 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -448,102 +597,371 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="5" max="5" width="43.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="2" t="s">
+    </row>
+    <row r="5" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>17</v>
+      <c r="E5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
